--- a/heliaData/oM_behavior.xlsx
+++ b/heliaData/oM_behavior.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helia\Documents\heliaData\ompa\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1AEE6E-847A-4059-BE33-C4BD32C57FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{F924CE6E-015A-4FB5-9627-7166FAC1DB7D}"/>
+    <workbookView xWindow="7240" yWindow="240" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20200425WT0301m2" sheetId="1" r:id="rId1"/>
@@ -18,9 +12,11 @@
     <sheet name="191011WT0201m3" sheetId="3" r:id="rId3"/>
     <sheet name="191011WT0201m2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="134">
   <si>
     <t>20200425WT0301m2d20200828</t>
   </si>
@@ -85,33 +81,6 @@
     <t>20200425WT0301m2d20201005</t>
   </si>
   <si>
-    <t>20200425WT0301m1d20200828</t>
-  </si>
-  <si>
-    <t>20200425WT0301m1d20200904</t>
-  </si>
-  <si>
-    <t>20200425WT0301m1d20200921</t>
-  </si>
-  <si>
-    <t>20200425WT0301m1d20200922</t>
-  </si>
-  <si>
-    <t>20200425WT0301m1d20200923</t>
-  </si>
-  <si>
-    <t>20200425WT0301m1d20200924</t>
-  </si>
-  <si>
-    <t>20200425WT0301m1d20200925</t>
-  </si>
-  <si>
-    <t>20200425WT0301m1d20200928</t>
-  </si>
-  <si>
-    <t>20200425WT0301m1d20200929</t>
-  </si>
-  <si>
     <t>20200425WT0301m1d20200930</t>
   </si>
   <si>
@@ -166,9 +135,6 @@
     <t>191011WT0201m3d20201005</t>
   </si>
   <si>
-    <t>191011WT0201m3d20200904</t>
-  </si>
-  <si>
     <t>20200425WT0301m2d20201006</t>
   </si>
   <si>
@@ -193,14 +159,290 @@
     <t>20200425WT0301m2d20201015</t>
   </si>
   <si>
-    <t>all</t>
+    <t>20200425WT0301m1d20201006</t>
+  </si>
+  <si>
+    <t>20200425WT0301m1d20201007</t>
+  </si>
+  <si>
+    <t>20200425WT0301m1d20201008</t>
+  </si>
+  <si>
+    <t>20200425WT0301m1d20201009</t>
+  </si>
+  <si>
+    <t>20200425WT0301m1d20201012</t>
+  </si>
+  <si>
+    <t>20200425WT0301m1d20201013</t>
+  </si>
+  <si>
+    <t>20200425WT0301m1d20201014</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20201006</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20201007</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20201008</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20201012</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20201013</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200814</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200820</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200821</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200822</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200823</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200825</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200826</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200807</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200810</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200811</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200813</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200803</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200804</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200705</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200706</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200707</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200709</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200710</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200717</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200718</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200720</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200722</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200723</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200724</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200728</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200727</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200729</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200730</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20200731</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20201014</t>
+  </si>
+  <si>
+    <t>20200425WT0301m2d20201021</t>
+  </si>
+  <si>
+    <t>20200425WT0301m1d20201015</t>
+  </si>
+  <si>
+    <t>20200425WT0301m1d20201021</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20201020</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20201021</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20201020</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20201021</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20200828</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20200917</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20200918</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20200919</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20200921</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20200922</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20200923</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20200924</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20200925</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20200928</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20200929</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20200930</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20201001</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20201005</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20201007</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20201008</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20201012</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20201013</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20200904</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20201009</t>
+  </si>
+  <si>
+    <t>20200425WT0301m2d20201023</t>
+  </si>
+  <si>
+    <t>20200425WT0301m2d20201025</t>
+  </si>
+  <si>
+    <t>coupled probabilities</t>
+  </si>
+  <si>
+    <t>20200425WT0301m1d20201023</t>
+  </si>
+  <si>
+    <t>20200425WT0301m1d20201025</t>
+  </si>
+  <si>
+    <t>decoupled probabilities</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20201023</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20201025</t>
+  </si>
+  <si>
+    <t>20200425WT0301m2d20201026</t>
+  </si>
+  <si>
+    <t>20200425WT0301m2d20201027</t>
+  </si>
+  <si>
+    <t>20200425WT0301m2d20201028</t>
+  </si>
+  <si>
+    <t>20200425WT0301m2d20201029</t>
+  </si>
+  <si>
+    <t>20200425WT0301m1d20201027</t>
+  </si>
+  <si>
+    <t>20200425WT0301m1d20201028</t>
+  </si>
+  <si>
+    <t>20200425WT0301m1d20201029</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20201027</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20201028</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20201029</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20201027</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20201028</t>
+  </si>
+  <si>
+    <t>191011WT0201m2d20201029</t>
+  </si>
+  <si>
+    <t>20200425WT0301m2d20201030</t>
+  </si>
+  <si>
+    <t>20200425WT0301m1d20201030</t>
+  </si>
+  <si>
+    <t>191011WT0201m3d20201030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +452,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,13 +490,177 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="83">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -297,7 +719,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -349,7 +771,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -543,412 +965,754 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBD1FF6-990D-45CC-B47E-A1500F2B2F1A}">
-  <dimension ref="A1:A24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED7C8E9-C068-4895-84A6-7C24143DC20E}">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="56.140625" customWidth="1"/>
+    <col min="1" max="1" width="56.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D7CCB5-5465-49EB-94FD-81A02F1657B5}">
-  <dimension ref="A1:A15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B1ADA5-6FCE-410A-9101-729B26A4578F}">
-  <dimension ref="A1:A15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>